--- a/Inputs/Examples/day16Velocities.xlsx
+++ b/Inputs/Examples/day16Velocities.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhittaker\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaswhittaker/source/AdventOfCode2021/Inputs/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2267A575-65B5-447C-BC99-9A93E9857B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A953105-E5E7-A74E-88C2-1F8D9A09F8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB718372-EEC8-4A85-AA28-993D32A62CBF}"/>
+    <workbookView xWindow="12480" yWindow="1540" windowWidth="26560" windowHeight="15840" xr2:uid="{BB718372-EEC8-4A85-AA28-993D32A62CBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$B$123</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,12 +39,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Step</t>
   </si>
   <si>
     <t>Initial V</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -414,15 +426,15 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="20" width="6.42578125" customWidth="1"/>
+    <col min="2" max="20" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -502,7 +514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -611,3544 +623,3544 @@
         <v>-6</v>
       </c>
       <c r="H3">
-        <f>H2+($A3-1)*-1 +H$1</f>
+        <f t="shared" ref="H3:Z3" si="1">H2+($A3-1)*-1 +H$1</f>
         <v>-5</v>
       </c>
       <c r="I3">
-        <f>I2+($A3-1)*-1 +I$1</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="J3">
-        <f>J2+($A3-1)*-1 +J$1</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="K3">
-        <f>K2+($A3-1)*-1 +K$1</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="L3">
-        <f>L2+($A3-1)*-1 +L$1</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="M3">
-        <f>M2+($A3-1)*-1 +M$1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>N2+($A3-1)*-1 +N$1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O3">
-        <f>O2+($A3-1)*-1 +O$1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P3">
-        <f>P2+($A3-1)*-1 +P$1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q3">
-        <f>Q2+($A3-1)*-1 +Q$1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R3">
-        <f>R2+($A3-1)*-1 +R$1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="S3">
-        <f>S2+($A3-1)*-1 +S$1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="T3">
-        <f>T2+($A3-1)*-1 +T$1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="U3">
-        <f>U2+($A3-1)*-1 +U$1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="V3">
-        <f>V2+($A3-1)*-1 +V$1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="W3">
-        <f>W2+($A3-1)*-1 +W$1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="X3">
-        <f>X2+($A3-1)*-1 +X$1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="Y3">
-        <f>Y2+($A3-1)*-1 +Y$1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="Z3">
-        <f>Z2+($A3-1)*-1 +Z$1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B36" si="1">B3+($A4-1)*-1 +B$1</f>
+        <f t="shared" ref="B4:B36" si="2">B3+($A4-1)*-1 +B$1</f>
         <v>-23</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C36" si="2">C3+($A4-1)*-1 +C$1</f>
+        <f t="shared" ref="C4:C36" si="3">C3+($A4-1)*-1 +C$1</f>
         <v>-21</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D36" si="3">D3+($A4-1)*-1 +D$1</f>
+        <f t="shared" ref="D4:D36" si="4">D3+($A4-1)*-1 +D$1</f>
         <v>-19</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E36" si="4">E3+($A4-1)*-1 +E$1</f>
+        <f t="shared" ref="E4:E36" si="5">E3+($A4-1)*-1 +E$1</f>
         <v>-17</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F36" si="5">F3+($A4-1)*-1 +F$1</f>
+        <f t="shared" ref="F4:F36" si="6">F3+($A4-1)*-1 +F$1</f>
         <v>-15</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G36" si="6">G3+($A4-1)*-1 +G$1</f>
+        <f t="shared" ref="G4:G36" si="7">G3+($A4-1)*-1 +G$1</f>
         <v>-13</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H36" si="7">H3+($A4-1)*-1 +H$1</f>
+        <f t="shared" ref="H4:H36" si="8">H3+($A4-1)*-1 +H$1</f>
         <v>-11</v>
       </c>
       <c r="I4">
-        <f>I3+($A4-1)*-1 +I$1</f>
+        <f t="shared" ref="I4:I36" si="9">I3+($A4-1)*-1 +I$1</f>
         <v>-9</v>
       </c>
       <c r="J4">
-        <f>J3+($A4-1)*-1 +J$1</f>
+        <f t="shared" ref="J4:J36" si="10">J3+($A4-1)*-1 +J$1</f>
         <v>-7</v>
       </c>
       <c r="K4">
-        <f>K3+($A4-1)*-1 +K$1</f>
+        <f t="shared" ref="K4:K36" si="11">K3+($A4-1)*-1 +K$1</f>
         <v>-5</v>
       </c>
       <c r="L4">
-        <f>L3+($A4-1)*-1 +L$1</f>
+        <f t="shared" ref="L4:L36" si="12">L3+($A4-1)*-1 +L$1</f>
         <v>-3</v>
       </c>
       <c r="M4">
-        <f>M3+($A4-1)*-1 +M$1</f>
+        <f t="shared" ref="M4:M36" si="13">M3+($A4-1)*-1 +M$1</f>
         <v>-1</v>
       </c>
       <c r="N4">
-        <f>N3+($A4-1)*-1 +N$1</f>
+        <f t="shared" ref="N4:N36" si="14">N3+($A4-1)*-1 +N$1</f>
         <v>1</v>
       </c>
       <c r="O4">
-        <f>O3+($A4-1)*-1 +O$1</f>
+        <f t="shared" ref="O4:O36" si="15">O3+($A4-1)*-1 +O$1</f>
         <v>3</v>
       </c>
       <c r="P4">
-        <f>P3+($A4-1)*-1 +P$1</f>
+        <f t="shared" ref="P4:P36" si="16">P3+($A4-1)*-1 +P$1</f>
         <v>5</v>
       </c>
       <c r="Q4">
-        <f>Q3+($A4-1)*-1 +Q$1</f>
+        <f t="shared" ref="Q4:Q36" si="17">Q3+($A4-1)*-1 +Q$1</f>
         <v>7</v>
       </c>
       <c r="R4">
-        <f>R3+($A4-1)*-1 +R$1</f>
+        <f t="shared" ref="R4:R36" si="18">R3+($A4-1)*-1 +R$1</f>
         <v>9</v>
       </c>
       <c r="S4">
-        <f>S3+($A4-1)*-1 +S$1</f>
+        <f t="shared" ref="S4:S36" si="19">S3+($A4-1)*-1 +S$1</f>
         <v>11</v>
       </c>
       <c r="T4">
-        <f>T3+($A4-1)*-1 +T$1</f>
+        <f t="shared" ref="T4:T36" si="20">T3+($A4-1)*-1 +T$1</f>
         <v>13</v>
       </c>
       <c r="U4">
-        <f>U3+($A4-1)*-1 +U$1</f>
+        <f t="shared" ref="U4:U36" si="21">U3+($A4-1)*-1 +U$1</f>
         <v>15</v>
       </c>
       <c r="V4">
-        <f>V3+($A4-1)*-1 +V$1</f>
+        <f t="shared" ref="V4:V36" si="22">V3+($A4-1)*-1 +V$1</f>
         <v>17</v>
       </c>
       <c r="W4">
-        <f>W3+($A4-1)*-1 +W$1</f>
+        <f t="shared" ref="W4:W36" si="23">W3+($A4-1)*-1 +W$1</f>
         <v>19</v>
       </c>
       <c r="X4">
-        <f>X3+($A4-1)*-1 +X$1</f>
+        <f t="shared" ref="X4:X36" si="24">X3+($A4-1)*-1 +X$1</f>
         <v>21</v>
       </c>
       <c r="Y4">
-        <f>Y3+($A4-1)*-1 +Y$1</f>
+        <f t="shared" ref="Y4:Y36" si="25">Y3+($A4-1)*-1 +Y$1</f>
         <v>23</v>
       </c>
       <c r="Z4">
-        <f>Z3+($A4-1)*-1 +Z$1</f>
+        <f t="shared" ref="Z4:Z36" si="26">Z3+($A4-1)*-1 +Z$1</f>
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-36</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-33</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-30</v>
       </c>
       <c r="E5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-27</v>
       </c>
       <c r="F5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-24</v>
       </c>
       <c r="G5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-21</v>
       </c>
       <c r="H5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-18</v>
       </c>
       <c r="I5">
-        <f>I4+($A5-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-15</v>
       </c>
       <c r="J5">
-        <f>J4+($A5-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-12</v>
       </c>
       <c r="K5">
-        <f>K4+($A5-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-9</v>
       </c>
       <c r="L5">
-        <f>L4+($A5-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-6</v>
       </c>
       <c r="M5">
-        <f>M4+($A5-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
       <c r="N5">
-        <f>N4+($A5-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>O4+($A5-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="P5">
-        <f>P4+($A5-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="Q5">
-        <f>Q4+($A5-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="R5">
-        <f>R4+($A5-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="S5">
-        <f>S4+($A5-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="T5">
-        <f>T4+($A5-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="U5">
-        <f>U4+($A5-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="V5">
-        <f>V4+($A5-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="W5">
-        <f>W4+($A5-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>27</v>
       </c>
       <c r="X5">
-        <f>X4+($A5-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="Y5">
-        <f>Y4+($A5-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>33</v>
       </c>
       <c r="Z5">
-        <f>Z4+($A5-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-50</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-46</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-42</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-38</v>
       </c>
       <c r="F6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-34</v>
       </c>
       <c r="G6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-30</v>
       </c>
       <c r="H6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-26</v>
       </c>
       <c r="I6">
-        <f>I5+($A6-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-22</v>
       </c>
       <c r="J6">
-        <f>J5+($A6-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-18</v>
       </c>
       <c r="K6">
-        <f>K5+($A6-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-14</v>
       </c>
       <c r="L6">
-        <f>L5+($A6-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-10</v>
       </c>
       <c r="M6">
-        <f>M5+($A6-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-6</v>
       </c>
       <c r="N6">
-        <f>N5+($A6-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="O6">
-        <f>O5+($A6-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="P6">
-        <f>P5+($A6-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="Q6">
-        <f>Q5+($A6-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="R6">
-        <f>R5+($A6-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="S6">
-        <f>S5+($A6-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="T6">
-        <f>T5+($A6-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="U6">
-        <f>U5+($A6-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>26</v>
       </c>
       <c r="V6">
-        <f>V5+($A6-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="W6">
-        <f>W5+($A6-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
       <c r="X6">
-        <f>X5+($A6-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>38</v>
       </c>
       <c r="Y6">
-        <f>Y5+($A6-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="Z6">
-        <f>Z5+($A6-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-65</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-60</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-55</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-50</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-45</v>
       </c>
       <c r="G7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-40</v>
       </c>
       <c r="H7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-35</v>
       </c>
       <c r="I7">
-        <f>I6+($A7-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-30</v>
       </c>
       <c r="J7">
-        <f>J6+($A7-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-25</v>
       </c>
       <c r="K7">
-        <f>K6+($A7-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-20</v>
       </c>
       <c r="L7">
-        <f>L6+($A7-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-15</v>
       </c>
       <c r="M7">
-        <f>M6+($A7-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-10</v>
       </c>
       <c r="N7">
-        <f>N6+($A7-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-5</v>
       </c>
       <c r="O7">
-        <f>O6+($A7-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>P6+($A7-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="Q7">
-        <f>Q6+($A7-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="R7">
-        <f>R6+($A7-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="S7">
-        <f>S6+($A7-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="T7">
-        <f>T6+($A7-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="U7">
-        <f>U6+($A7-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="V7">
-        <f>V6+($A7-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="W7">
-        <f>W6+($A7-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="X7">
-        <f>X6+($A7-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="Y7">
-        <f>Y6+($A7-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="Z7">
-        <f>Z6+($A7-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-81</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-75</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-69</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-63</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-57</v>
       </c>
       <c r="G8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-51</v>
       </c>
       <c r="H8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-45</v>
       </c>
       <c r="I8">
-        <f>I7+($A8-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-39</v>
       </c>
       <c r="J8">
-        <f>J7+($A8-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-33</v>
       </c>
       <c r="K8">
-        <f>K7+($A8-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-27</v>
       </c>
       <c r="L8">
-        <f>L7+($A8-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-21</v>
       </c>
       <c r="M8">
-        <f>M7+($A8-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-15</v>
       </c>
       <c r="N8">
-        <f>N7+($A8-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-9</v>
       </c>
       <c r="O8">
-        <f>O7+($A8-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-3</v>
       </c>
       <c r="P8">
-        <f>P7+($A8-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="Q8">
-        <f>Q7+($A8-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="R8">
-        <f>R7+($A8-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="S8">
-        <f>S7+($A8-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="T8">
-        <f>T7+($A8-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="U8">
-        <f>U7+($A8-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="V8">
-        <f>V7+($A8-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>39</v>
       </c>
       <c r="W8">
-        <f>W7+($A8-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
       <c r="X8">
-        <f>X7+($A8-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>51</v>
       </c>
       <c r="Y8">
-        <f>Y7+($A8-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>57</v>
       </c>
       <c r="Z8">
-        <f>Z7+($A8-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-98</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-91</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-84</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-77</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-70</v>
       </c>
       <c r="G9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-63</v>
       </c>
       <c r="H9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-56</v>
       </c>
       <c r="I9">
-        <f>I8+($A9-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-49</v>
       </c>
       <c r="J9">
-        <f>J8+($A9-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-42</v>
       </c>
       <c r="K9">
-        <f>K8+($A9-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-35</v>
       </c>
       <c r="L9">
-        <f>L8+($A9-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-28</v>
       </c>
       <c r="M9">
-        <f>M8+($A9-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-21</v>
       </c>
       <c r="N9">
-        <f>N8+($A9-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-14</v>
       </c>
       <c r="O9">
-        <f>O8+($A9-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-7</v>
       </c>
       <c r="P9">
-        <f>P8+($A9-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>Q8+($A9-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="R9">
-        <f>R8+($A9-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="S9">
-        <f>S8+($A9-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="T9">
-        <f>T8+($A9-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="U9">
-        <f>U8+($A9-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="V9">
-        <f>V8+($A9-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="W9">
-        <f>W8+($A9-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>49</v>
       </c>
       <c r="X9">
-        <f>X8+($A9-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>56</v>
       </c>
       <c r="Y9">
-        <f>Y8+($A9-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>63</v>
       </c>
       <c r="Z9">
-        <f>Z8+($A9-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-116</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-108</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-100</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-92</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-84</v>
       </c>
       <c r="G10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-76</v>
       </c>
       <c r="H10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-68</v>
       </c>
       <c r="I10">
-        <f>I9+($A10-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-60</v>
       </c>
       <c r="J10">
-        <f>J9+($A10-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-52</v>
       </c>
       <c r="K10">
-        <f>K9+($A10-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-44</v>
       </c>
       <c r="L10">
-        <f>L9+($A10-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-36</v>
       </c>
       <c r="M10">
-        <f>M9+($A10-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-28</v>
       </c>
       <c r="N10">
-        <f>N9+($A10-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-20</v>
       </c>
       <c r="O10">
-        <f>O9+($A10-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-12</v>
       </c>
       <c r="P10">
-        <f>P9+($A10-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-4</v>
       </c>
       <c r="Q10">
-        <f>Q9+($A10-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="R10">
-        <f>R9+($A10-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="S10">
-        <f>S9+($A10-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="T10">
-        <f>T9+($A10-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="U10">
-        <f>U9+($A10-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="V10">
-        <f>V9+($A10-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="W10">
-        <f>W9+($A10-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>52</v>
       </c>
       <c r="X10">
-        <f>X9+($A10-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="Y10">
-        <f>Y9+($A10-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>68</v>
       </c>
       <c r="Z10">
-        <f>Z9+($A10-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-135</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-126</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-117</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-108</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-99</v>
       </c>
       <c r="G11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-90</v>
       </c>
       <c r="H11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-81</v>
       </c>
       <c r="I11">
-        <f>I10+($A11-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-72</v>
       </c>
       <c r="J11">
-        <f>J10+($A11-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-63</v>
       </c>
       <c r="K11">
-        <f>K10+($A11-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-54</v>
       </c>
       <c r="L11">
-        <f>L10+($A11-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-45</v>
       </c>
       <c r="M11">
-        <f>M10+($A11-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-36</v>
       </c>
       <c r="N11">
-        <f>N10+($A11-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-27</v>
       </c>
       <c r="O11">
-        <f>O10+($A11-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-18</v>
       </c>
       <c r="P11">
-        <f>P10+($A11-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-9</v>
       </c>
       <c r="Q11">
-        <f>Q10+($A11-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>R10+($A11-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="S11">
-        <f>S10+($A11-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="T11">
-        <f>T10+($A11-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="U11">
-        <f>U10+($A11-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="V11">
-        <f>V10+($A11-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="W11">
-        <f>W10+($A11-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="X11">
-        <f>X10+($A11-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>63</v>
       </c>
       <c r="Y11">
-        <f>Y10+($A11-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>72</v>
       </c>
       <c r="Z11">
-        <f>Z10+($A11-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-155</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-145</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-135</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-125</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-115</v>
       </c>
       <c r="G12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-105</v>
       </c>
       <c r="H12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-95</v>
       </c>
       <c r="I12">
-        <f>I11+($A12-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-85</v>
       </c>
       <c r="J12">
-        <f>J11+($A12-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-75</v>
       </c>
       <c r="K12">
-        <f>K11+($A12-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-65</v>
       </c>
       <c r="L12">
-        <f>L11+($A12-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-55</v>
       </c>
       <c r="M12">
-        <f>M11+($A12-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-45</v>
       </c>
       <c r="N12">
-        <f>N11+($A12-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-35</v>
       </c>
       <c r="O12">
-        <f>O11+($A12-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-25</v>
       </c>
       <c r="P12">
-        <f>P11+($A12-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-15</v>
       </c>
       <c r="Q12">
-        <f>Q11+($A12-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-5</v>
       </c>
       <c r="R12">
-        <f>R11+($A12-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="S12">
-        <f>S11+($A12-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="T12">
-        <f>T11+($A12-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="U12">
-        <f>U11+($A12-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="V12">
-        <f>V11+($A12-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="W12">
-        <f>W11+($A12-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>55</v>
       </c>
       <c r="X12">
-        <f>X11+($A12-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>65</v>
       </c>
       <c r="Y12">
-        <f>Y11+($A12-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="Z12">
-        <f>Z11+($A12-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-176</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-165</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-154</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-143</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-132</v>
       </c>
       <c r="G13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-121</v>
       </c>
       <c r="H13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-110</v>
       </c>
       <c r="I13">
-        <f>I12+($A13-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-99</v>
       </c>
       <c r="J13">
-        <f>J12+($A13-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-88</v>
       </c>
       <c r="K13">
-        <f>K12+($A13-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-77</v>
       </c>
       <c r="L13">
-        <f>L12+($A13-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-66</v>
       </c>
       <c r="M13">
-        <f>M12+($A13-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-55</v>
       </c>
       <c r="N13">
-        <f>N12+($A13-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-44</v>
       </c>
       <c r="O13">
-        <f>O12+($A13-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-33</v>
       </c>
       <c r="P13">
-        <f>P12+($A13-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-22</v>
       </c>
       <c r="Q13">
-        <f>Q12+($A13-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-11</v>
       </c>
       <c r="R13">
-        <f>R12+($A13-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S13">
-        <f>S12+($A13-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="T13">
-        <f>T12+($A13-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="U13">
-        <f>U12+($A13-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="V13">
-        <f>V12+($A13-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="W13">
-        <f>W12+($A13-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>55</v>
       </c>
       <c r="X13">
-        <f>X12+($A13-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>66</v>
       </c>
       <c r="Y13">
-        <f>Y12+($A13-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>77</v>
       </c>
       <c r="Z13">
-        <f>Z12+($A13-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-198</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-186</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-174</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-162</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-150</v>
       </c>
       <c r="G14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-138</v>
       </c>
       <c r="H14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-126</v>
       </c>
       <c r="I14">
-        <f>I13+($A14-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-114</v>
       </c>
       <c r="J14">
-        <f>J13+($A14-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-102</v>
       </c>
       <c r="K14">
-        <f>K13+($A14-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-90</v>
       </c>
       <c r="L14">
-        <f>L13+($A14-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-78</v>
       </c>
       <c r="M14">
-        <f>M13+($A14-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-66</v>
       </c>
       <c r="N14">
-        <f>N13+($A14-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-54</v>
       </c>
       <c r="O14">
-        <f>O13+($A14-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-42</v>
       </c>
       <c r="P14">
-        <f>P13+($A14-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-30</v>
       </c>
       <c r="Q14">
-        <f>Q13+($A14-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-18</v>
       </c>
       <c r="R14">
-        <f>R13+($A14-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-6</v>
       </c>
       <c r="S14">
-        <f>S13+($A14-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="T14">
-        <f>T13+($A14-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="U14">
-        <f>U13+($A14-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="V14">
-        <f>V13+($A14-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="W14">
-        <f>W13+($A14-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="X14">
-        <f>X13+($A14-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>66</v>
       </c>
       <c r="Y14">
-        <f>Y13+($A14-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>78</v>
       </c>
       <c r="Z14">
-        <f>Z13+($A14-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-221</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-208</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-195</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-182</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-169</v>
       </c>
       <c r="G15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-156</v>
       </c>
       <c r="H15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-143</v>
       </c>
       <c r="I15">
-        <f>I14+($A15-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-130</v>
       </c>
       <c r="J15">
-        <f>J14+($A15-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-117</v>
       </c>
       <c r="K15">
-        <f>K14+($A15-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-104</v>
       </c>
       <c r="L15">
-        <f>L14+($A15-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-91</v>
       </c>
       <c r="M15">
-        <f>M14+($A15-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-78</v>
       </c>
       <c r="N15">
-        <f>N14+($A15-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-65</v>
       </c>
       <c r="O15">
-        <f>O14+($A15-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-52</v>
       </c>
       <c r="P15">
-        <f>P14+($A15-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-39</v>
       </c>
       <c r="Q15">
-        <f>Q14+($A15-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-26</v>
       </c>
       <c r="R15">
-        <f>R14+($A15-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-13</v>
       </c>
       <c r="S15">
-        <f>S14+($A15-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>T14+($A15-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="U15">
-        <f>U14+($A15-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>26</v>
       </c>
       <c r="V15">
-        <f>V14+($A15-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>39</v>
       </c>
       <c r="W15">
-        <f>W14+($A15-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>52</v>
       </c>
       <c r="X15">
-        <f>X14+($A15-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>65</v>
       </c>
       <c r="Y15">
-        <f>Y14+($A15-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>78</v>
       </c>
       <c r="Z15">
-        <f>Z14+($A15-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-245</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-231</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-217</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-203</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-189</v>
       </c>
       <c r="G16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-175</v>
       </c>
       <c r="H16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-161</v>
       </c>
       <c r="I16">
-        <f>I15+($A16-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-147</v>
       </c>
       <c r="J16">
-        <f>J15+($A16-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-133</v>
       </c>
       <c r="K16">
-        <f>K15+($A16-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-119</v>
       </c>
       <c r="L16">
-        <f>L15+($A16-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-105</v>
       </c>
       <c r="M16">
-        <f>M15+($A16-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-91</v>
       </c>
       <c r="N16">
-        <f>N15+($A16-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-77</v>
       </c>
       <c r="O16">
-        <f>O15+($A16-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-63</v>
       </c>
       <c r="P16">
-        <f>P15+($A16-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-49</v>
       </c>
       <c r="Q16">
-        <f>Q15+($A16-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-35</v>
       </c>
       <c r="R16">
-        <f>R15+($A16-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-21</v>
       </c>
       <c r="S16">
-        <f>S15+($A16-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-7</v>
       </c>
       <c r="T16">
-        <f>T15+($A16-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="U16">
-        <f>U15+($A16-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="V16">
-        <f>V15+($A16-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="W16">
-        <f>W15+($A16-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>49</v>
       </c>
       <c r="X16">
-        <f>X15+($A16-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>63</v>
       </c>
       <c r="Y16">
-        <f>Y15+($A16-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>77</v>
       </c>
       <c r="Z16">
-        <f>Z15+($A16-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-270</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-255</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-240</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-225</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-210</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-195</v>
       </c>
       <c r="H17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-180</v>
       </c>
       <c r="I17">
-        <f>I16+($A17-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-165</v>
       </c>
       <c r="J17">
-        <f>J16+($A17-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-150</v>
       </c>
       <c r="K17">
-        <f>K16+($A17-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-135</v>
       </c>
       <c r="L17">
-        <f>L16+($A17-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-120</v>
       </c>
       <c r="M17">
-        <f>M16+($A17-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-105</v>
       </c>
       <c r="N17">
-        <f>N16+($A17-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-90</v>
       </c>
       <c r="O17">
-        <f>O16+($A17-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-75</v>
       </c>
       <c r="P17">
-        <f>P16+($A17-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-60</v>
       </c>
       <c r="Q17">
-        <f>Q16+($A17-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-45</v>
       </c>
       <c r="R17">
-        <f>R16+($A17-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-30</v>
       </c>
       <c r="S17">
-        <f>S16+($A17-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-15</v>
       </c>
       <c r="T17">
-        <f>T16+($A17-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U17">
-        <f>U16+($A17-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="V17">
-        <f>V16+($A17-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="W17">
-        <f>W16+($A17-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
       <c r="X17">
-        <f>X16+($A17-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="Y17">
-        <f>Y16+($A17-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="Z17">
-        <f>Z16+($A17-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-296</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-280</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-264</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-248</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-232</v>
       </c>
       <c r="G18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-216</v>
       </c>
       <c r="H18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-200</v>
       </c>
       <c r="I18">
-        <f>I17+($A18-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-184</v>
       </c>
       <c r="J18">
-        <f>J17+($A18-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-168</v>
       </c>
       <c r="K18">
-        <f>K17+($A18-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-152</v>
       </c>
       <c r="L18">
-        <f>L17+($A18-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-136</v>
       </c>
       <c r="M18">
-        <f>M17+($A18-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-120</v>
       </c>
       <c r="N18">
-        <f>N17+($A18-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-104</v>
       </c>
       <c r="O18">
-        <f>O17+($A18-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-88</v>
       </c>
       <c r="P18">
-        <f>P17+($A18-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-72</v>
       </c>
       <c r="Q18">
-        <f>Q17+($A18-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-56</v>
       </c>
       <c r="R18">
-        <f>R17+($A18-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-40</v>
       </c>
       <c r="S18">
-        <f>S17+($A18-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-24</v>
       </c>
       <c r="T18">
-        <f>T17+($A18-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-8</v>
       </c>
       <c r="U18">
-        <f>U17+($A18-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="V18">
-        <f>V17+($A18-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="W18">
-        <f>W17+($A18-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="X18">
-        <f>X17+($A18-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>56</v>
       </c>
       <c r="Y18">
-        <f>Y17+($A18-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>72</v>
       </c>
       <c r="Z18">
-        <f>Z17+($A18-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-323</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-306</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-289</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-272</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-255</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-238</v>
       </c>
       <c r="H19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-221</v>
       </c>
       <c r="I19">
-        <f>I18+($A19-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-204</v>
       </c>
       <c r="J19">
-        <f>J18+($A19-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-187</v>
       </c>
       <c r="K19">
-        <f>K18+($A19-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-170</v>
       </c>
       <c r="L19">
-        <f>L18+($A19-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-153</v>
       </c>
       <c r="M19">
-        <f>M18+($A19-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-136</v>
       </c>
       <c r="N19">
-        <f>N18+($A19-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-119</v>
       </c>
       <c r="O19">
-        <f>O18+($A19-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-102</v>
       </c>
       <c r="P19">
-        <f>P18+($A19-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-85</v>
       </c>
       <c r="Q19">
-        <f>Q18+($A19-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-68</v>
       </c>
       <c r="R19">
-        <f>R18+($A19-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-51</v>
       </c>
       <c r="S19">
-        <f>S18+($A19-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-34</v>
       </c>
       <c r="T19">
-        <f>T18+($A19-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-17</v>
       </c>
       <c r="U19">
-        <f>U18+($A19-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V19">
-        <f>V18+($A19-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="W19">
-        <f>W18+($A19-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
       <c r="X19">
-        <f>X18+($A19-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>51</v>
       </c>
       <c r="Y19">
-        <f>Y18+($A19-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>68</v>
       </c>
       <c r="Z19">
-        <f>Z18+($A19-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-351</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-333</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-315</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-297</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-279</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-261</v>
       </c>
       <c r="H20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-243</v>
       </c>
       <c r="I20">
-        <f>I19+($A20-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-225</v>
       </c>
       <c r="J20">
-        <f>J19+($A20-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-207</v>
       </c>
       <c r="K20">
-        <f>K19+($A20-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-189</v>
       </c>
       <c r="L20">
-        <f>L19+($A20-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-171</v>
       </c>
       <c r="M20">
-        <f>M19+($A20-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-153</v>
       </c>
       <c r="N20">
-        <f>N19+($A20-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-135</v>
       </c>
       <c r="O20">
-        <f>O19+($A20-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-117</v>
       </c>
       <c r="P20">
-        <f>P19+($A20-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-99</v>
       </c>
       <c r="Q20">
-        <f>Q19+($A20-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-81</v>
       </c>
       <c r="R20">
-        <f>R19+($A20-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-63</v>
       </c>
       <c r="S20">
-        <f>S19+($A20-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-45</v>
       </c>
       <c r="T20">
-        <f>T19+($A20-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-27</v>
       </c>
       <c r="U20">
-        <f>U19+($A20-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-9</v>
       </c>
       <c r="V20">
-        <f>V19+($A20-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="W20">
-        <f>W19+($A20-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>27</v>
       </c>
       <c r="X20">
-        <f>X19+($A20-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="Y20">
-        <f>Y19+($A20-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>63</v>
       </c>
       <c r="Z20">
-        <f>Z19+($A20-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-380</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-361</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-342</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-323</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-304</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-285</v>
       </c>
       <c r="H21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-266</v>
       </c>
       <c r="I21">
-        <f>I20+($A21-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-247</v>
       </c>
       <c r="J21">
-        <f>J20+($A21-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-228</v>
       </c>
       <c r="K21">
-        <f>K20+($A21-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-209</v>
       </c>
       <c r="L21">
-        <f>L20+($A21-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-190</v>
       </c>
       <c r="M21">
-        <f>M20+($A21-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-171</v>
       </c>
       <c r="N21">
-        <f>N20+($A21-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-152</v>
       </c>
       <c r="O21">
-        <f>O20+($A21-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-133</v>
       </c>
       <c r="P21">
-        <f>P20+($A21-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-114</v>
       </c>
       <c r="Q21">
-        <f>Q20+($A21-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-95</v>
       </c>
       <c r="R21">
-        <f>R20+($A21-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-76</v>
       </c>
       <c r="S21">
-        <f>S20+($A21-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-57</v>
       </c>
       <c r="T21">
-        <f>T20+($A21-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-38</v>
       </c>
       <c r="U21">
-        <f>U20+($A21-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-19</v>
       </c>
       <c r="V21">
-        <f>V20+($A21-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W21">
-        <f>W20+($A21-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="X21">
-        <f>X20+($A21-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>38</v>
       </c>
       <c r="Y21">
-        <f>Y20+($A21-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>57</v>
       </c>
       <c r="Z21">
-        <f>Z20+($A21-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-410</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-390</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-370</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-350</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-330</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-310</v>
       </c>
       <c r="H22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-290</v>
       </c>
       <c r="I22">
-        <f>I21+($A22-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-270</v>
       </c>
       <c r="J22">
-        <f>J21+($A22-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-250</v>
       </c>
       <c r="K22">
-        <f>K21+($A22-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-230</v>
       </c>
       <c r="L22">
-        <f>L21+($A22-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-210</v>
       </c>
       <c r="M22">
-        <f>M21+($A22-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-190</v>
       </c>
       <c r="N22">
-        <f>N21+($A22-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-170</v>
       </c>
       <c r="O22">
-        <f>O21+($A22-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-150</v>
       </c>
       <c r="P22">
-        <f>P21+($A22-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-130</v>
       </c>
       <c r="Q22">
-        <f>Q21+($A22-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-110</v>
       </c>
       <c r="R22">
-        <f>R21+($A22-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-90</v>
       </c>
       <c r="S22">
-        <f>S21+($A22-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-70</v>
       </c>
       <c r="T22">
-        <f>T21+($A22-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-50</v>
       </c>
       <c r="U22">
-        <f>U21+($A22-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-30</v>
       </c>
       <c r="V22">
-        <f>V21+($A22-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
       <c r="W22">
-        <f>W21+($A22-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="X22">
-        <f>X21+($A22-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="Y22">
-        <f>Y21+($A22-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="Z22">
-        <f>Z21+($A22-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-441</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-420</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-399</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-378</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-357</v>
       </c>
       <c r="G23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-336</v>
       </c>
       <c r="H23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-315</v>
       </c>
       <c r="I23">
-        <f>I22+($A23-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-294</v>
       </c>
       <c r="J23">
-        <f>J22+($A23-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-273</v>
       </c>
       <c r="K23">
-        <f>K22+($A23-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-252</v>
       </c>
       <c r="L23">
-        <f>L22+($A23-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-231</v>
       </c>
       <c r="M23">
-        <f>M22+($A23-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-210</v>
       </c>
       <c r="N23">
-        <f>N22+($A23-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-189</v>
       </c>
       <c r="O23">
-        <f>O22+($A23-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-168</v>
       </c>
       <c r="P23">
-        <f>P22+($A23-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-147</v>
       </c>
       <c r="Q23">
-        <f>Q22+($A23-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-126</v>
       </c>
       <c r="R23">
-        <f>R22+($A23-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-105</v>
       </c>
       <c r="S23">
-        <f>S22+($A23-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-84</v>
       </c>
       <c r="T23">
-        <f>T22+($A23-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-63</v>
       </c>
       <c r="U23">
-        <f>U22+($A23-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-42</v>
       </c>
       <c r="V23">
-        <f>V22+($A23-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-21</v>
       </c>
       <c r="W23">
-        <f>W22+($A23-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X23">
-        <f>X22+($A23-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="Y23">
-        <f>Y22+($A23-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="Z23">
-        <f>Z22+($A23-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-473</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-451</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-429</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-407</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-385</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-363</v>
       </c>
       <c r="H24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-341</v>
       </c>
       <c r="I24">
-        <f>I23+($A24-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-319</v>
       </c>
       <c r="J24">
-        <f>J23+($A24-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-297</v>
       </c>
       <c r="K24">
-        <f>K23+($A24-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-275</v>
       </c>
       <c r="L24">
-        <f>L23+($A24-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-253</v>
       </c>
       <c r="M24">
-        <f>M23+($A24-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-231</v>
       </c>
       <c r="N24">
-        <f>N23+($A24-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-209</v>
       </c>
       <c r="O24">
-        <f>O23+($A24-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-187</v>
       </c>
       <c r="P24">
-        <f>P23+($A24-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-165</v>
       </c>
       <c r="Q24">
-        <f>Q23+($A24-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-143</v>
       </c>
       <c r="R24">
-        <f>R23+($A24-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-121</v>
       </c>
       <c r="S24">
-        <f>S23+($A24-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-99</v>
       </c>
       <c r="T24">
-        <f>T23+($A24-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-77</v>
       </c>
       <c r="U24">
-        <f>U23+($A24-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-55</v>
       </c>
       <c r="V24">
-        <f>V23+($A24-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-33</v>
       </c>
       <c r="W24">
-        <f>W23+($A24-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-11</v>
       </c>
       <c r="X24">
-        <f>X23+($A24-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="Y24">
-        <f>Y23+($A24-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>33</v>
       </c>
       <c r="Z24">
-        <f>Z23+($A24-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-506</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-483</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-460</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-437</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-414</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-391</v>
       </c>
       <c r="H25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-368</v>
       </c>
       <c r="I25">
-        <f>I24+($A25-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-345</v>
       </c>
       <c r="J25">
-        <f>J24+($A25-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-322</v>
       </c>
       <c r="K25">
-        <f>K24+($A25-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-299</v>
       </c>
       <c r="L25">
-        <f>L24+($A25-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-276</v>
       </c>
       <c r="M25">
-        <f>M24+($A25-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-253</v>
       </c>
       <c r="N25">
-        <f>N24+($A25-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-230</v>
       </c>
       <c r="O25">
-        <f>O24+($A25-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-207</v>
       </c>
       <c r="P25">
-        <f>P24+($A25-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-184</v>
       </c>
       <c r="Q25">
-        <f>Q24+($A25-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-161</v>
       </c>
       <c r="R25">
-        <f>R24+($A25-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-138</v>
       </c>
       <c r="S25">
-        <f>S24+($A25-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-115</v>
       </c>
       <c r="T25">
-        <f>T24+($A25-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-92</v>
       </c>
       <c r="U25">
-        <f>U24+($A25-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-69</v>
       </c>
       <c r="V25">
-        <f>V24+($A25-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-46</v>
       </c>
       <c r="W25">
-        <f>W24+($A25-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-23</v>
       </c>
       <c r="X25">
-        <f>X24+($A25-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f>Y24+($A25-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="Z25">
-        <f>Z24+($A25-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-540</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-516</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-492</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-468</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-444</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-420</v>
       </c>
       <c r="H26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-396</v>
       </c>
       <c r="I26">
-        <f>I25+($A26-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-372</v>
       </c>
       <c r="J26">
-        <f>J25+($A26-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-348</v>
       </c>
       <c r="K26">
-        <f>K25+($A26-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-324</v>
       </c>
       <c r="L26">
-        <f>L25+($A26-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-300</v>
       </c>
       <c r="M26">
-        <f>M25+($A26-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-276</v>
       </c>
       <c r="N26">
-        <f>N25+($A26-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-252</v>
       </c>
       <c r="O26">
-        <f>O25+($A26-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-228</v>
       </c>
       <c r="P26">
-        <f>P25+($A26-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-204</v>
       </c>
       <c r="Q26">
-        <f>Q25+($A26-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-180</v>
       </c>
       <c r="R26">
-        <f>R25+($A26-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-156</v>
       </c>
       <c r="S26">
-        <f>S25+($A26-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-132</v>
       </c>
       <c r="T26">
-        <f>T25+($A26-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-108</v>
       </c>
       <c r="U26">
-        <f>U25+($A26-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-84</v>
       </c>
       <c r="V26">
-        <f>V25+($A26-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-60</v>
       </c>
       <c r="W26">
-        <f>W25+($A26-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-36</v>
       </c>
       <c r="X26">
-        <f>X25+($A26-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-12</v>
       </c>
       <c r="Y26">
-        <f>Y25+($A26-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="Z26">
-        <f>Z25+($A26-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-575</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-550</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-525</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-500</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-475</v>
       </c>
       <c r="G27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-450</v>
       </c>
       <c r="H27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-425</v>
       </c>
       <c r="I27">
-        <f>I26+($A27-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-400</v>
       </c>
       <c r="J27">
-        <f>J26+($A27-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-375</v>
       </c>
       <c r="K27">
-        <f>K26+($A27-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-350</v>
       </c>
       <c r="L27">
-        <f>L26+($A27-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-325</v>
       </c>
       <c r="M27">
-        <f>M26+($A27-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-300</v>
       </c>
       <c r="N27">
-        <f>N26+($A27-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-275</v>
       </c>
       <c r="O27">
-        <f>O26+($A27-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-250</v>
       </c>
       <c r="P27">
-        <f>P26+($A27-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-225</v>
       </c>
       <c r="Q27">
-        <f>Q26+($A27-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-200</v>
       </c>
       <c r="R27">
-        <f>R26+($A27-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-175</v>
       </c>
       <c r="S27">
-        <f>S26+($A27-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-150</v>
       </c>
       <c r="T27">
-        <f>T26+($A27-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-125</v>
       </c>
       <c r="U27">
-        <f>U26+($A27-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-100</v>
       </c>
       <c r="V27">
-        <f>V26+($A27-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-75</v>
       </c>
       <c r="W27">
-        <f>W26+($A27-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-50</v>
       </c>
       <c r="X27">
-        <f>X26+($A27-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-25</v>
       </c>
       <c r="Y27">
-        <f>Y26+($A27-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f>Z26+($A27-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-611</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-585</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-559</v>
       </c>
       <c r="E28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-533</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-507</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-481</v>
       </c>
       <c r="H28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-455</v>
       </c>
       <c r="I28">
-        <f>I27+($A28-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-429</v>
       </c>
       <c r="J28">
-        <f>J27+($A28-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-403</v>
       </c>
       <c r="K28">
-        <f>K27+($A28-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-377</v>
       </c>
       <c r="L28">
-        <f>L27+($A28-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-351</v>
       </c>
       <c r="M28">
-        <f>M27+($A28-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-325</v>
       </c>
       <c r="N28">
-        <f>N27+($A28-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-299</v>
       </c>
       <c r="O28">
-        <f>O27+($A28-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-273</v>
       </c>
       <c r="P28">
-        <f>P27+($A28-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-247</v>
       </c>
       <c r="Q28">
-        <f>Q27+($A28-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-221</v>
       </c>
       <c r="R28">
-        <f>R27+($A28-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-195</v>
       </c>
       <c r="S28">
-        <f>S27+($A28-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-169</v>
       </c>
       <c r="T28">
-        <f>T27+($A28-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-143</v>
       </c>
       <c r="U28">
-        <f>U27+($A28-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-117</v>
       </c>
       <c r="V28">
-        <f>V27+($A28-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-91</v>
       </c>
       <c r="W28">
-        <f>W27+($A28-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-65</v>
       </c>
       <c r="X28">
-        <f>X27+($A28-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-39</v>
       </c>
       <c r="Y28">
-        <f>Y27+($A28-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>-13</v>
       </c>
       <c r="Z28">
-        <f>Z27+($A28-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-648</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-621</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-594</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-567</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-540</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-513</v>
       </c>
       <c r="H29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-486</v>
       </c>
       <c r="I29">
-        <f>I28+($A29-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-459</v>
       </c>
       <c r="J29">
-        <f>J28+($A29-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-432</v>
       </c>
       <c r="K29">
-        <f>K28+($A29-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-405</v>
       </c>
       <c r="L29">
-        <f>L28+($A29-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-378</v>
       </c>
       <c r="M29">
-        <f>M28+($A29-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-351</v>
       </c>
       <c r="N29">
-        <f>N28+($A29-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-324</v>
       </c>
       <c r="O29">
-        <f>O28+($A29-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-297</v>
       </c>
       <c r="P29">
-        <f>P28+($A29-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-270</v>
       </c>
       <c r="Q29">
-        <f>Q28+($A29-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-243</v>
       </c>
       <c r="R29">
-        <f>R28+($A29-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-216</v>
       </c>
       <c r="S29">
-        <f>S28+($A29-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-189</v>
       </c>
       <c r="T29">
-        <f>T28+($A29-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-162</v>
       </c>
       <c r="U29">
-        <f>U28+($A29-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-135</v>
       </c>
       <c r="V29">
-        <f>V28+($A29-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-108</v>
       </c>
       <c r="W29">
-        <f>W28+($A29-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-81</v>
       </c>
       <c r="X29">
-        <f>X28+($A29-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-54</v>
       </c>
       <c r="Y29">
-        <f>Y28+($A29-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>-27</v>
       </c>
       <c r="Z29">
-        <f>Z28+($A29-1)*-1 +Z$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-686</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-658</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-630</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-602</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-574</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-546</v>
       </c>
       <c r="H30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-518</v>
       </c>
       <c r="I30">
-        <f>I29+($A30-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-490</v>
       </c>
       <c r="J30">
-        <f>J29+($A30-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-462</v>
       </c>
       <c r="K30">
-        <f>K29+($A30-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-434</v>
       </c>
       <c r="L30">
-        <f>L29+($A30-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-406</v>
       </c>
       <c r="M30">
-        <f>M29+($A30-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-378</v>
       </c>
       <c r="N30">
-        <f>N29+($A30-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-350</v>
       </c>
       <c r="O30">
-        <f>O29+($A30-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-322</v>
       </c>
       <c r="P30">
-        <f>P29+($A30-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-294</v>
       </c>
       <c r="Q30">
-        <f>Q29+($A30-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-266</v>
       </c>
       <c r="R30">
-        <f>R29+($A30-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-238</v>
       </c>
       <c r="S30">
-        <f>S29+($A30-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-210</v>
       </c>
       <c r="T30">
-        <f>T29+($A30-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-182</v>
       </c>
       <c r="U30">
-        <f>U29+($A30-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-154</v>
       </c>
       <c r="V30">
-        <f>V29+($A30-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-126</v>
       </c>
       <c r="W30">
-        <f>W29+($A30-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-98</v>
       </c>
       <c r="X30">
-        <f>X29+($A30-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-70</v>
       </c>
       <c r="Y30">
-        <f>Y29+($A30-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>-42</v>
       </c>
       <c r="Z30">
-        <f>Z29+($A30-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>-14</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-725</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-696</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-667</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-638</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-609</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-580</v>
       </c>
       <c r="H31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-551</v>
       </c>
       <c r="I31">
-        <f>I30+($A31-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-522</v>
       </c>
       <c r="J31">
-        <f>J30+($A31-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-493</v>
       </c>
       <c r="K31">
-        <f>K30+($A31-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-464</v>
       </c>
       <c r="L31">
-        <f>L30+($A31-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-435</v>
       </c>
       <c r="M31">
-        <f>M30+($A31-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-406</v>
       </c>
       <c r="N31">
-        <f>N30+($A31-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-377</v>
       </c>
       <c r="O31">
-        <f>O30+($A31-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-348</v>
       </c>
       <c r="P31">
-        <f>P30+($A31-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-319</v>
       </c>
       <c r="Q31">
-        <f>Q30+($A31-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-290</v>
       </c>
       <c r="R31">
-        <f>R30+($A31-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-261</v>
       </c>
       <c r="S31">
-        <f>S30+($A31-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-232</v>
       </c>
       <c r="T31">
-        <f>T30+($A31-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-203</v>
       </c>
       <c r="U31">
-        <f>U30+($A31-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-174</v>
       </c>
       <c r="V31">
-        <f>V30+($A31-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-145</v>
       </c>
       <c r="W31">
-        <f>W30+($A31-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-116</v>
       </c>
       <c r="X31">
-        <f>X30+($A31-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-87</v>
       </c>
       <c r="Y31">
-        <f>Y30+($A31-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>-58</v>
       </c>
       <c r="Z31">
-        <f>Z30+($A31-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>-29</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-765</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-735</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-705</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-675</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-645</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-615</v>
       </c>
       <c r="H32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-585</v>
       </c>
       <c r="I32">
-        <f>I31+($A32-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-555</v>
       </c>
       <c r="J32">
-        <f>J31+($A32-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-525</v>
       </c>
       <c r="K32">
-        <f>K31+($A32-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-495</v>
       </c>
       <c r="L32">
-        <f>L31+($A32-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-465</v>
       </c>
       <c r="M32">
-        <f>M31+($A32-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-435</v>
       </c>
       <c r="N32">
-        <f>N31+($A32-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-405</v>
       </c>
       <c r="O32">
-        <f>O31+($A32-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-375</v>
       </c>
       <c r="P32">
-        <f>P31+($A32-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-345</v>
       </c>
       <c r="Q32">
-        <f>Q31+($A32-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-315</v>
       </c>
       <c r="R32">
-        <f>R31+($A32-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-285</v>
       </c>
       <c r="S32">
-        <f>S31+($A32-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-255</v>
       </c>
       <c r="T32">
-        <f>T31+($A32-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-225</v>
       </c>
       <c r="U32">
-        <f>U31+($A32-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-195</v>
       </c>
       <c r="V32">
-        <f>V31+($A32-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-165</v>
       </c>
       <c r="W32">
-        <f>W31+($A32-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-135</v>
       </c>
       <c r="X32">
-        <f>X31+($A32-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-105</v>
       </c>
       <c r="Y32">
-        <f>Y31+($A32-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>-75</v>
       </c>
       <c r="Z32">
-        <f>Z31+($A32-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>-45</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-806</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-775</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-744</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-713</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-682</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-651</v>
       </c>
       <c r="H33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-620</v>
       </c>
       <c r="I33">
-        <f>I32+($A33-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-589</v>
       </c>
       <c r="J33">
-        <f>J32+($A33-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-558</v>
       </c>
       <c r="K33">
-        <f>K32+($A33-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-527</v>
       </c>
       <c r="L33">
-        <f>L32+($A33-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-496</v>
       </c>
       <c r="M33">
-        <f>M32+($A33-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-465</v>
       </c>
       <c r="N33">
-        <f>N32+($A33-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-434</v>
       </c>
       <c r="O33">
-        <f>O32+($A33-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-403</v>
       </c>
       <c r="P33">
-        <f>P32+($A33-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-372</v>
       </c>
       <c r="Q33">
-        <f>Q32+($A33-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-341</v>
       </c>
       <c r="R33">
-        <f>R32+($A33-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-310</v>
       </c>
       <c r="S33">
-        <f>S32+($A33-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-279</v>
       </c>
       <c r="T33">
-        <f>T32+($A33-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-248</v>
       </c>
       <c r="U33">
-        <f>U32+($A33-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-217</v>
       </c>
       <c r="V33">
-        <f>V32+($A33-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-186</v>
       </c>
       <c r="W33">
-        <f>W32+($A33-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-155</v>
       </c>
       <c r="X33">
-        <f>X32+($A33-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-124</v>
       </c>
       <c r="Y33">
-        <f>Y32+($A33-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>-93</v>
       </c>
       <c r="Z33">
-        <f>Z32+($A33-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>-62</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-848</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-816</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-784</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-752</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-720</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-688</v>
       </c>
       <c r="H34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-656</v>
       </c>
       <c r="I34">
-        <f>I33+($A34-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-624</v>
       </c>
       <c r="J34">
-        <f>J33+($A34-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-592</v>
       </c>
       <c r="K34">
-        <f>K33+($A34-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-560</v>
       </c>
       <c r="L34">
-        <f>L33+($A34-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-528</v>
       </c>
       <c r="M34">
-        <f>M33+($A34-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-496</v>
       </c>
       <c r="N34">
-        <f>N33+($A34-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-464</v>
       </c>
       <c r="O34">
-        <f>O33+($A34-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-432</v>
       </c>
       <c r="P34">
-        <f>P33+($A34-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-400</v>
       </c>
       <c r="Q34">
-        <f>Q33+($A34-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-368</v>
       </c>
       <c r="R34">
-        <f>R33+($A34-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-336</v>
       </c>
       <c r="S34">
-        <f>S33+($A34-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-304</v>
       </c>
       <c r="T34">
-        <f>T33+($A34-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-272</v>
       </c>
       <c r="U34">
-        <f>U33+($A34-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-240</v>
       </c>
       <c r="V34">
-        <f>V33+($A34-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-208</v>
       </c>
       <c r="W34">
-        <f>W33+($A34-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-176</v>
       </c>
       <c r="X34">
-        <f>X33+($A34-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-144</v>
       </c>
       <c r="Y34">
-        <f>Y33+($A34-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>-112</v>
       </c>
       <c r="Z34">
-        <f>Z33+($A34-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>-80</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-891</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-858</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-825</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-792</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-759</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-726</v>
       </c>
       <c r="H35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-693</v>
       </c>
       <c r="I35">
-        <f>I34+($A35-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-660</v>
       </c>
       <c r="J35">
-        <f>J34+($A35-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-627</v>
       </c>
       <c r="K35">
-        <f>K34+($A35-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-594</v>
       </c>
       <c r="L35">
-        <f>L34+($A35-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-561</v>
       </c>
       <c r="M35">
-        <f>M34+($A35-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-528</v>
       </c>
       <c r="N35">
-        <f>N34+($A35-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-495</v>
       </c>
       <c r="O35">
-        <f>O34+($A35-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-462</v>
       </c>
       <c r="P35">
-        <f>P34+($A35-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-429</v>
       </c>
       <c r="Q35">
-        <f>Q34+($A35-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-396</v>
       </c>
       <c r="R35">
-        <f>R34+($A35-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-363</v>
       </c>
       <c r="S35">
-        <f>S34+($A35-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-330</v>
       </c>
       <c r="T35">
-        <f>T34+($A35-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-297</v>
       </c>
       <c r="U35">
-        <f>U34+($A35-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-264</v>
       </c>
       <c r="V35">
-        <f>V34+($A35-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-231</v>
       </c>
       <c r="W35">
-        <f>W34+($A35-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-198</v>
       </c>
       <c r="X35">
-        <f>X34+($A35-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-165</v>
       </c>
       <c r="Y35">
-        <f>Y34+($A35-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>-132</v>
       </c>
       <c r="Z35">
-        <f>Z34+($A35-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>-99</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-935</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-901</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-867</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-833</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-799</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-765</v>
       </c>
       <c r="H36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-731</v>
       </c>
       <c r="I36">
-        <f>I35+($A36-1)*-1 +I$1</f>
+        <f t="shared" si="9"/>
         <v>-697</v>
       </c>
       <c r="J36">
-        <f>J35+($A36-1)*-1 +J$1</f>
+        <f t="shared" si="10"/>
         <v>-663</v>
       </c>
       <c r="K36">
-        <f>K35+($A36-1)*-1 +K$1</f>
+        <f t="shared" si="11"/>
         <v>-629</v>
       </c>
       <c r="L36">
-        <f>L35+($A36-1)*-1 +L$1</f>
+        <f t="shared" si="12"/>
         <v>-595</v>
       </c>
       <c r="M36">
-        <f>M35+($A36-1)*-1 +M$1</f>
+        <f t="shared" si="13"/>
         <v>-561</v>
       </c>
       <c r="N36">
-        <f>N35+($A36-1)*-1 +N$1</f>
+        <f t="shared" si="14"/>
         <v>-527</v>
       </c>
       <c r="O36">
-        <f>O35+($A36-1)*-1 +O$1</f>
+        <f t="shared" si="15"/>
         <v>-493</v>
       </c>
       <c r="P36">
-        <f>P35+($A36-1)*-1 +P$1</f>
+        <f t="shared" si="16"/>
         <v>-459</v>
       </c>
       <c r="Q36">
-        <f>Q35+($A36-1)*-1 +Q$1</f>
+        <f t="shared" si="17"/>
         <v>-425</v>
       </c>
       <c r="R36">
-        <f>R35+($A36-1)*-1 +R$1</f>
+        <f t="shared" si="18"/>
         <v>-391</v>
       </c>
       <c r="S36">
-        <f>S35+($A36-1)*-1 +S$1</f>
+        <f t="shared" si="19"/>
         <v>-357</v>
       </c>
       <c r="T36">
-        <f>T35+($A36-1)*-1 +T$1</f>
+        <f t="shared" si="20"/>
         <v>-323</v>
       </c>
       <c r="U36">
-        <f>U35+($A36-1)*-1 +U$1</f>
+        <f t="shared" si="21"/>
         <v>-289</v>
       </c>
       <c r="V36">
-        <f>V35+($A36-1)*-1 +V$1</f>
+        <f t="shared" si="22"/>
         <v>-255</v>
       </c>
       <c r="W36">
-        <f>W35+($A36-1)*-1 +W$1</f>
+        <f t="shared" si="23"/>
         <v>-221</v>
       </c>
       <c r="X36">
-        <f>X35+($A36-1)*-1 +X$1</f>
+        <f t="shared" si="24"/>
         <v>-187</v>
       </c>
       <c r="Y36">
-        <f>Y35+($A36-1)*-1 +Y$1</f>
+        <f t="shared" si="25"/>
         <v>-153</v>
       </c>
       <c r="Z36">
-        <f>Z35+($A36-1)*-1 +Z$1</f>
+        <f t="shared" si="26"/>
         <v>-119</v>
       </c>
     </row>
@@ -4168,15 +4180,15 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:Q4"/>
+      <selection activeCell="J5" sqref="J5:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="33" width="6.5703125" customWidth="1"/>
+    <col min="2" max="33" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4277,7 +4289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4378,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4511,7 +4523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4777,7 +4789,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4910,7 +4922,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5043,7 +5055,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5176,7 +5188,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5309,7 +5321,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5442,7 +5454,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5575,7 +5587,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5708,7 +5720,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5841,7 +5853,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5974,7 +5986,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6240,7 +6252,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6373,7 +6385,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6506,7 +6518,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6639,7 +6651,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6772,7 +6784,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6905,7 +6917,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -7038,7 +7050,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7171,7 +7183,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7304,7 +7316,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7437,7 +7449,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7570,7 +7582,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7703,7 +7715,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -7836,7 +7848,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -7969,7 +7981,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8102,7 +8114,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8235,7 +8247,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8368,7 +8380,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8501,7 +8513,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8634,7 +8646,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8767,7 +8779,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8909,4 +8921,933 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6378D71-BF19-3A46-8C6B-86A5C969B5B7}">
+  <dimension ref="A1:B113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>21</v>
+      </c>
+      <c r="B54">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>21</v>
+      </c>
+      <c r="B57">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>23</v>
+      </c>
+      <c r="B66">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>23</v>
+      </c>
+      <c r="B67">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="B69">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>23</v>
+      </c>
+      <c r="B70">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>23</v>
+      </c>
+      <c r="B71">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>24</v>
+      </c>
+      <c r="B73">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>24</v>
+      </c>
+      <c r="B75">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>24</v>
+      </c>
+      <c r="B76">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>24</v>
+      </c>
+      <c r="B77">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>25</v>
+      </c>
+      <c r="B78">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>25</v>
+      </c>
+      <c r="B79">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>25</v>
+      </c>
+      <c r="B80">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>25</v>
+      </c>
+      <c r="B81">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>25</v>
+      </c>
+      <c r="B82">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>25</v>
+      </c>
+      <c r="B83">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>26</v>
+      </c>
+      <c r="B84">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>26</v>
+      </c>
+      <c r="B85">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>26</v>
+      </c>
+      <c r="B86">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>26</v>
+      </c>
+      <c r="B87">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>26</v>
+      </c>
+      <c r="B88">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>26</v>
+      </c>
+      <c r="B89">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>27</v>
+      </c>
+      <c r="B90">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>27</v>
+      </c>
+      <c r="B91">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>27</v>
+      </c>
+      <c r="B92">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>27</v>
+      </c>
+      <c r="B93">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>27</v>
+      </c>
+      <c r="B94">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>27</v>
+      </c>
+      <c r="B95">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>28</v>
+      </c>
+      <c r="B97">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>28</v>
+      </c>
+      <c r="B98">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>28</v>
+      </c>
+      <c r="B99">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>28</v>
+      </c>
+      <c r="B100">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>28</v>
+      </c>
+      <c r="B101">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>29</v>
+      </c>
+      <c r="B102">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>29</v>
+      </c>
+      <c r="B103">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>29</v>
+      </c>
+      <c r="B104">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>29</v>
+      </c>
+      <c r="B105">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>29</v>
+      </c>
+      <c r="B106">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>29</v>
+      </c>
+      <c r="B107">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>30</v>
+      </c>
+      <c r="B108">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>30</v>
+      </c>
+      <c r="B109">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>30</v>
+      </c>
+      <c r="B110">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>30</v>
+      </c>
+      <c r="B111">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>30</v>
+      </c>
+      <c r="B112">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>30</v>
+      </c>
+      <c r="B113">
+        <v>-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B123" xr:uid="{C6378D71-BF19-3A46-8C6B-86A5C969B5B7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B123">
+      <sortCondition descending="1" ref="A1:A123"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B124">
+    <sortCondition ref="A2:A124"/>
+    <sortCondition ref="B2:B124"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>